--- a/scripts/modules/classification/Classification_Regex_Rules.xlsx
+++ b/scripts/modules/classification/Classification_Regex_Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26612"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanes-my.sharepoint.com/personal/hannah_allen_hanes_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA00264D-DCE9-4478-A69E-1253C7B712CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{981780C0-8B4E-4E8B-B7F5-B5A0531F552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35370" yWindow="240" windowWidth="18135" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2960" yWindow="1440" windowWidth="16240" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
     <t>International Article Number (GTIN/EAN/UPC)</t>
   </si>
   <si>
-    <t>International Article Number, International Material Number</t>
-  </si>
-  <si>
-    <t>MAT, NO, #, MATL, INTL, INT'L, GTIN, EAN, UPC</t>
+    <t>International Article Number, International Material Number, GTIN, EAN, UPC</t>
+  </si>
+  <si>
+    <t>MAT, NO, #, INTL, INT'L</t>
   </si>
   <si>
     <t>Issue Storage Location</t>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,7 +397,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,25 +702,25 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="55.1796875" customWidth="1"/>
-    <col min="7" max="7" width="57.7265625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" customWidth="1"/>
+    <col min="7" max="7" width="74.42578125" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -767,7 +766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -787,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -810,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -833,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -853,7 +852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -873,7 +872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -893,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -910,7 +909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -930,7 +929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -950,7 +949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -963,7 +962,7 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G12" t="s">
@@ -973,7 +972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -986,7 +985,7 @@
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G13" t="s">
@@ -996,7 +995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -1009,7 +1008,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G14" t="s">
@@ -1019,7 +1018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>52</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -1055,7 +1054,7 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G16" t="s">
@@ -1065,7 +1064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>67</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>71</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>75</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -1211,21 +1210,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DB3BAA1812B841B2E36C77F2714D7B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38ab6503e57958b987f1af7c733c0791">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c" xmlns:ns3="0a0cce24-4f5d-4807-bc09-f8d701f4a390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f65dc122b1df5bb2422e6558850f9c9" ns2:_="" ns3:_="">
     <xsd:import namespace="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
@@ -1396,46 +1386,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a0cce24-4f5d-4807-bc09-f8d701f4a390"/>
-    <ds:schemaRef ds:uri="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
-    <ds:schemaRef ds:uri="0a0cce24-4f5d-4807-bc09-f8d701f4a390"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
 </file>